--- a/clases_grabadas/meets-url.xlsx
+++ b/clases_grabadas/meets-url.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>FUNCIONA</t>
   </si>
@@ -215,6 +215,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/16FBSwyg5GoMsae0pD5ES7qYrKuud0ofu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_5BnmHGbjP14cySkv4zck7gbBa9hz4IZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FHtM31mYZMwtQ4JffKpX4Ww19CTyvi8j/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qDHDR_kEvK53z_r4foO-sknOFgKcpfnD/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YmvHDMxZ2z5lo5XLG84st4_hnnFYOsZn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XBNIK2HP7TJvdCBpTI9r3xfJmik8VSnJ/view?usp=sharing</t>
   </si>
   <si>
     <t>FIN BOOTCAMP</t>
@@ -270,7 +285,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +316,12 @@
         <bgColor rgb="FFF8F8F8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -313,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -362,6 +383,8 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,265 +1397,292 @@
       <c r="A77" s="3">
         <v>44083.0</v>
       </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="3">
-        <v>44084.0</v>
+      <c r="A78" s="17">
+        <v>44083.0</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>44085.0</v>
+        <v>44084.0</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>44086.0</v>
-      </c>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
+        <v>44085.0</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>44087.0</v>
+        <v>44086.0</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>44088.0</v>
-      </c>
+        <v>44087.0</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>44089.0</v>
+        <v>44088.0</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>44090.0</v>
+        <v>44089.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>44091.0</v>
+        <v>44090.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>44092.0</v>
+        <v>44091.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>44093.0</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
+        <v>44092.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>44094.0</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
+        <v>44093.0</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>44095.0</v>
-      </c>
+        <v>44094.0</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>44096.0</v>
+        <v>44095.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>44097.0</v>
+        <v>44096.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>44098.0</v>
+        <v>44097.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>44099.0</v>
+        <v>44098.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>44100.0</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
+        <v>44099.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>44101.0</v>
+        <v>44100.0</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>44102.0</v>
-      </c>
+        <v>44101.0</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>44103.0</v>
+        <v>44102.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>44104.0</v>
+        <v>44103.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>44105.0</v>
+        <v>44104.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>44106.0</v>
+        <v>44105.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>44107.0</v>
-      </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
+        <v>44106.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>44108.0</v>
+        <v>44107.0</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>44109.0</v>
-      </c>
+        <v>44108.0</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>44110.0</v>
+        <v>44109.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>44111.0</v>
+        <v>44110.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>44112.0</v>
+        <v>44111.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>44113.0</v>
+        <v>44112.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>44114.0</v>
-      </c>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
+        <v>44113.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>44115.0</v>
+        <v>44114.0</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>44116.0</v>
-      </c>
+        <v>44115.0</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>44117.0</v>
+        <v>44116.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>44118.0</v>
+        <v>44117.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>44119.0</v>
+        <v>44118.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>44120.0</v>
+        <v>44119.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>44121.0</v>
-      </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
+        <v>44120.0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>44122.0</v>
+        <v>44121.0</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>44123.0</v>
-      </c>
+        <v>44122.0</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>44124.0</v>
+        <v>44123.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>44125.0</v>
+        <v>44124.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>44126.0</v>
+        <v>44125.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3">
+        <v>44126.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3">
         <v>44127.0</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3"/>
-      <c r="B122" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" s="12"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
-      <c r="B123" s="12"/>
+      <c r="B123" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="C123" s="12"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
@@ -1660,6 +1710,9 @@
     </row>
     <row r="133">
       <c r="A133" s="3"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1718,7 +1771,12 @@
     <hyperlink r:id="rId53" ref="D72"/>
     <hyperlink r:id="rId54" ref="D75"/>
     <hyperlink r:id="rId55" ref="D76"/>
+    <hyperlink r:id="rId56" ref="D77"/>
+    <hyperlink r:id="rId57" ref="D78"/>
+    <hyperlink r:id="rId58" ref="D79"/>
+    <hyperlink r:id="rId59" ref="D80"/>
+    <hyperlink r:id="rId60" ref="D83"/>
   </hyperlinks>
-  <drawing r:id="rId56"/>
+  <drawing r:id="rId61"/>
 </worksheet>
 </file>